--- a/24-25/Invoice 24-25/13 BK013 Oct 24-25 TCS Granite SDN BHD/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/24-25/Invoice 24-25/13 BK013 Oct 24-25 TCS Granite SDN BHD/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\24-25\Invoice 24-25\13 BK013 Oct 24-25 TCS Granite SDN BHD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E46CDA-7892-4121-A87F-91B769FF9BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FC0F4E-71C1-4DBC-8404-A227540B209D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="168">
   <si>
     <t xml:space="preserve">EXPORTER </t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Quantity in</t>
-  </si>
-  <si>
-    <t>SQM</t>
   </si>
   <si>
     <t>Rate  Per</t>
@@ -615,22 +612,22 @@
     <t>SUB TOTAL</t>
   </si>
   <si>
-    <t>Product 1: Quantity</t>
-  </si>
-  <si>
-    <t>Product 1: Rate  Per</t>
-  </si>
-  <si>
-    <t>Product 2: Quantity</t>
-  </si>
-  <si>
-    <t>Product 2 : Rate per</t>
-  </si>
-  <si>
     <t xml:space="preserve">Absolute Black Polished Granite Slabs : Cutter Slab: 180 - 330 cm length, 60 -85 cm width, 30mm </t>
   </si>
   <si>
     <t>Absolute Black Polished Granite Slabs : Cutter Slab: 180 - 330 cm length, 60 -85 cm width, 20mm</t>
+  </si>
+  <si>
+    <t>2cm : Rate  Per</t>
+  </si>
+  <si>
+    <t>3 cm: Rate per</t>
+  </si>
+  <si>
+    <t>2 cm : Quantity (feet)</t>
+  </si>
+  <si>
+    <t>3 cm : Quantity (feet)</t>
   </si>
 </sst>
 </file>
@@ -1245,6 +1242,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1253,6 +1260,303 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,20 +1569,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1298,193 +1593,280 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1493,401 +1875,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2442,63 +2439,63 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>128</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2511,8 +2508,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,23 +2521,23 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="37" t="str">
         <f>"BK0" &amp; B2 &amp; "/" &amp; B1</f>
@@ -2549,7 +2546,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="42">
         <v>45632</v>
@@ -2557,7 +2554,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="47" t="str">
         <f>IF(B1="24-25","AD240424008317F",IF(B1="23-24","AD240322004861M",IF(B1="","select the financial year")))</f>
@@ -2565,11 +2562,11 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>154</v>
+      <c r="A6" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>153</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -2577,24 +2574,24 @@
       <c r="F6" s="43"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -2602,16 +2599,16 @@
       <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
@@ -2619,7 +2616,7 @@
     </row>
     <row r="12" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="48">
         <v>1</v>
@@ -2631,10 +2628,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -2643,10 +2640,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -2655,26 +2652,26 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2682,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2690,7 +2687,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2698,7 +2695,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2706,7 +2703,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2714,22 +2711,22 @@
         <v>24</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2742,12 +2739,12 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="39">
         <v>5.25</v>
@@ -2831,8 +2828,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,30 +2844,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
+      <c r="A1" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -2879,16 +2876,16 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="122" t="s">
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="123"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2897,18 +2894,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="141" t="str">
+      <c r="E4" s="117" t="str">
         <f>'input data'!B3</f>
         <v>BK013/24-25</v>
       </c>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="144">
+      <c r="F4" s="125"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="126">
         <f>'input data'!B4</f>
         <v>45632</v>
       </c>
-      <c r="I4" s="142"/>
-      <c r="J4" s="143"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="118"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -2917,16 +2914,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="122" t="s">
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="123"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -2935,15 +2932,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="145" t="str">
+      <c r="E6" s="117"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="127" t="str">
         <f>'input data'!B5</f>
         <v>AD240424008317F</v>
       </c>
-      <c r="I6" s="146"/>
-      <c r="J6" s="125"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -2952,34 +2949,34 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="122" t="s">
+      <c r="F7" s="87"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="123"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="141" t="s">
+      <c r="E8" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="124" t="s">
+      <c r="F8" s="125"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="146"/>
-      <c r="J8" s="125"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -2988,16 +2985,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="123"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
@@ -3006,68 +3003,68 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="102" t="str">
+      <c r="E10" s="83" t="str">
         <f>'input data'!B13</f>
         <v>Loose packing</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="102" t="str">
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="83" t="str">
         <f>'input data'!B12 &amp; " " &amp; 'input data'!B14</f>
         <v>1 FCL</v>
       </c>
-      <c r="I10" s="103"/>
-      <c r="J10" s="138"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="159" t="s">
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="153"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="153" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="160" t="str">
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="92" t="str">
         <f>'input data'!B15</f>
         <v>CNF</v>
       </c>
-      <c r="F12" s="155"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="155" t="str">
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="79" t="str">
         <f>'input data'!B16</f>
         <v>Against Documents</v>
       </c>
-      <c r="I12" s="155"/>
-      <c r="J12" s="156"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -3076,367 +3073,367 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="262" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="263"/>
-      <c r="G14" s="263"/>
-      <c r="H14" s="263"/>
-      <c r="I14" s="263"/>
-      <c r="J14" s="264"/>
+      <c r="E14" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="105"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="114" t="str">
+      <c r="A15" s="97" t="str">
         <f>'input data'!B6</f>
         <v>TCS GRANITE SDN BHD
 Add: No 23, Lorong Sungai Puloh 8/KU6, Kawasan Perindustrian Sungai Puloh, 42100 Klang Selangor
 Tel- 03-32907704
 Email : 	tcsmarble@gmail.com</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="266"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="267"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="108"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="265"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="267"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="108"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="265"/>
-      <c r="F17" s="266"/>
-      <c r="G17" s="266"/>
-      <c r="H17" s="266"/>
-      <c r="I17" s="266"/>
-      <c r="J17" s="267"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="108"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="265"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="266"/>
-      <c r="H18" s="266"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="267"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="108"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="99"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="268"/>
-      <c r="F19" s="269"/>
-      <c r="G19" s="269"/>
-      <c r="H19" s="269"/>
-      <c r="I19" s="269"/>
-      <c r="J19" s="270"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="111"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="126" t="s">
+      <c r="B20" s="90"/>
+      <c r="C20" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="126" t="s">
+      <c r="D20" s="90"/>
+      <c r="E20" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="126" t="s">
+      <c r="F20" s="87"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="131"/>
-      <c r="J20" s="132"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="90"/>
     </row>
     <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="150"/>
-      <c r="C21" s="120" t="str">
+      <c r="B21" s="113"/>
+      <c r="C21" s="121" t="str">
         <f>'input data'!B18</f>
         <v>Khammam</v>
       </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="127" t="s">
+      <c r="D21" s="122"/>
+      <c r="E21" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="128"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="127" t="str">
+      <c r="F21" s="144"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="143" t="str">
         <f>'input data'!B22</f>
         <v>MALAYSIA</v>
       </c>
-      <c r="I21" s="133"/>
-      <c r="J21" s="134"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="147"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="137"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="88" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="122" t="s">
+      <c r="D23" s="88"/>
+      <c r="E23" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="88" t="s">
+      <c r="F23" s="87"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="88"/>
-      <c r="J23" s="123"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="141"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="124" t="str">
+      <c r="A24" s="117"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="114" t="str">
         <f>'input data'!B19</f>
         <v>Khammam</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="124" t="str">
+      <c r="D24" s="116"/>
+      <c r="E24" s="114" t="str">
         <f>'input data'!B20</f>
         <v>Port Klang</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="124" t="str">
+      <c r="F24" s="115"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="114" t="str">
         <f>'input data'!B21</f>
         <v>Port Klang</v>
       </c>
-      <c r="I24" s="146"/>
-      <c r="J24" s="125"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="275" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="272" t="s">
+      <c r="A25" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="273"/>
-      <c r="D25" s="274"/>
-      <c r="E25" s="275" t="s">
+      <c r="C25" s="134"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="276" t="s">
+      <c r="F25" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="277"/>
-      <c r="H25" s="278" t="s">
+      <c r="G25" s="140"/>
+      <c r="H25" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="276" t="s">
+      <c r="J25" s="140"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="120"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="141" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="142"/>
+      <c r="H26" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="277"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="282"/>
-      <c r="B26" s="279"/>
-      <c r="C26" s="280"/>
-      <c r="D26" s="281"/>
-      <c r="E26" s="282"/>
-      <c r="F26" s="283" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="284"/>
-      <c r="H26" s="285" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="283" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="284"/>
+      <c r="J26" s="142"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89">
+      <c r="A27" s="168">
         <v>1</v>
       </c>
-      <c r="B27" s="107" t="str">
+      <c r="B27" s="162" t="str">
         <f>'input data'!B17</f>
         <v>Absolute Black Polished Granite Slabs : Cutter Slab: 180 - 330 cm length, 60 -85 cm width, 20mm</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="89">
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="168">
         <v>68022390</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="171">
         <f>'input data'!B25</f>
         <v>0</v>
       </c>
-      <c r="G27" s="78"/>
-      <c r="H27" s="91">
+      <c r="G27" s="172"/>
+      <c r="H27" s="174">
         <f>'input data'!B26</f>
         <v>3</v>
       </c>
-      <c r="I27" s="73">
+      <c r="I27" s="176">
         <f>H27*F27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="74"/>
+      <c r="J27" s="177"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="76"/>
+      <c r="A28" s="169"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="179"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="113"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="76"/>
+      <c r="A29" s="170"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="90">
+      <c r="A30" s="169">
         <v>2</v>
       </c>
-      <c r="B30" s="114" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="89">
+      <c r="B30" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="98"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="168">
         <v>68022390</v>
       </c>
-      <c r="F30" s="77">
+      <c r="F30" s="171">
         <f>'input data'!B27</f>
         <v>0</v>
       </c>
-      <c r="G30" s="78"/>
-      <c r="H30" s="91">
+      <c r="G30" s="172"/>
+      <c r="H30" s="174">
         <f>'input data'!B28</f>
         <v>5.25</v>
       </c>
-      <c r="I30" s="73">
+      <c r="I30" s="176">
         <f>F30*H30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="74"/>
+      <c r="J30" s="177"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
+      <c r="A31" s="169"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="179"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="113"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
+      <c r="A32" s="170"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="179"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="69" t="s">
-        <v>46</v>
-      </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="H33" s="119"/>
-      <c r="I33" s="73">
+      <c r="G33" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" s="181"/>
+      <c r="I33" s="176">
         <f>I27+I30</f>
         <v>0</v>
       </c>
-      <c r="J33" s="74"/>
+      <c r="J33" s="177"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="102" t="str">
+      <c r="A34" s="83" t="str">
         <f>UPPER('input data'!B23)</f>
         <v/>
       </c>
-      <c r="B34" s="103"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="57">
         <f>'input data'!B24</f>
         <v>0</v>
       </c>
       <c r="D34" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="F34" s="18"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="76"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="179"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
@@ -3444,15 +3441,15 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="258"/>
-      <c r="G35" s="118" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" s="119"/>
-      <c r="I35" s="259">
+      <c r="F35" s="71"/>
+      <c r="G35" s="180" t="s">
+        <v>159</v>
+      </c>
+      <c r="H35" s="181"/>
+      <c r="I35" s="188">
         <v>5600</v>
       </c>
-      <c r="J35" s="74"/>
+      <c r="J35" s="177"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
@@ -3461,69 +3458,69 @@
       <c r="D36" s="20"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="260"/>
-      <c r="J36" s="261"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="190"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="118" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" s="119"/>
-      <c r="I37" s="84">
+      <c r="G37" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" s="181"/>
+      <c r="I37" s="184">
         <f>I33-I35</f>
         <v>-5600</v>
       </c>
-      <c r="J37" s="85"/>
+      <c r="J37" s="185"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="87"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="187"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="161" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="155"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="81" t="s">
+      <c r="F39" s="182"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="182"/>
+      <c r="I39" s="182"/>
+      <c r="J39" s="183"/>
+    </row>
+    <row r="40" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="83"/>
-    </row>
-    <row r="40" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -3532,10 +3529,10 @@
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="159"/>
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3544,12 +3541,12 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="98"/>
+      <c r="A42" s="160" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="99"/>
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -3558,12 +3555,12 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="99"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="101"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
       <c r="E43" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -3573,23 +3570,45 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A15:D19"/>
-    <mergeCell ref="E14:J19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:J32"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="B27:D29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:D32"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="C21:D22"/>
     <mergeCell ref="E3:G3"/>
@@ -3606,45 +3625,23 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="B27:D29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:D32"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:J32"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A15:D19"/>
+    <mergeCell ref="E14:J19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3661,8 +3658,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3673,98 +3670,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="231" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="88"/>
+      <c r="I2" s="232" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="233"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="122" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="123"/>
-      <c r="I2" s="169" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="170"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="171" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="141" t="str">
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="117" t="str">
         <f>Inovice!E4</f>
         <v>BK013/24-25</v>
       </c>
-      <c r="H3" s="143"/>
-      <c r="I3" s="144">
+      <c r="H3" s="118"/>
+      <c r="I3" s="126">
         <f>Inovice!H4</f>
         <v>45632</v>
       </c>
-      <c r="J3" s="143"/>
+      <c r="J3" s="118"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="170"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="233"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="145" t="str">
+      <c r="G5" s="127" t="str">
         <f>'input data'!B5</f>
         <v>AD240424008317F</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="125"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="116"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="175" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
+      <c r="A6" s="238" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
       <c r="F6" s="18"/>
       <c r="G6" s="64"/>
       <c r="H6" s="66"/>
@@ -3773,7 +3770,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -3781,7 +3778,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
       <c r="G7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -3789,7 +3786,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3797,7 +3794,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
       <c r="G8" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -3813,7 +3810,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -3834,29 +3831,29 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
       <c r="F11" s="2"/>
       <c r="G11" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="177" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="178"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
+      <c r="A12" s="240" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="241"/>
+      <c r="C12" s="241"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
       <c r="F12" s="18"/>
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
@@ -3864,11 +3861,11 @@
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="179"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
+      <c r="A13" s="242"/>
+      <c r="B13" s="243"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="243"/>
       <c r="F13" s="8"/>
       <c r="G13" s="16"/>
       <c r="H13" s="17"/>
@@ -3876,211 +3873,211 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="167"/>
+      <c r="B14" s="229"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="230"/>
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="114" t="str">
+      <c r="A15" s="97" t="str">
         <f>Inovice!A15</f>
         <v>TCS GRANITE SDN BHD
 Add: No 23, Lorong Sungai Puloh 8/KU6, Kawasan Perindustrian Sungai Puloh, 42100 Klang Selangor
 Tel- 03-32907704
 Email : 	tcsmarble@gmail.com</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="98"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="114"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="187" t="s">
+      <c r="A18" s="97"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="219" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="221"/>
+      <c r="I18" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="188"/>
-      <c r="I18" s="191" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="188"/>
+      <c r="J18" s="221"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="114"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="190"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="225"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="226"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="139" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="140"/>
-      <c r="I20" s="139" t="str">
+      <c r="H20" s="124"/>
+      <c r="I20" s="123" t="str">
         <f>Inovice!H21</f>
         <v>MALAYSIA</v>
       </c>
-      <c r="J20" s="140"/>
+      <c r="J20" s="124"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="181" t="s">
+      <c r="A21" s="213" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="214"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="181" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="182"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="184" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="222" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="224"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="141"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="124" t="str">
+      <c r="A22" s="117"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="114" t="str">
         <f>Inovice!C21</f>
         <v>Khammam</v>
       </c>
-      <c r="E22" s="146"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="161" t="str">
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="93" t="str">
         <f>'input data'!B15</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="158"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="82"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="213" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="214"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="182"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="181" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="182"/>
-      <c r="F23" s="183"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="215"/>
       <c r="G23" s="33"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
       <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="141"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="124" t="str">
+      <c r="A24" s="117"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="114" t="str">
         <f>Inovice!C24</f>
         <v>Khammam</v>
       </c>
-      <c r="E24" s="146"/>
-      <c r="F24" s="125"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="181" t="s">
+      <c r="A25" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="182"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="181" t="s">
+      <c r="B25" s="214"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="182"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="195"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="196"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="216" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="217"/>
+      <c r="I25" s="217"/>
+      <c r="J25" s="218"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="147" t="str">
+      <c r="A26" s="128" t="str">
         <f>Inovice!E24</f>
         <v>Port Klang</v>
       </c>
-      <c r="B26" s="193"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="147" t="str">
+      <c r="B26" s="204"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="128" t="str">
         <f>Inovice!H24</f>
         <v>Port Klang</v>
       </c>
-      <c r="E26" s="193"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="187" t="str">
+      <c r="E26" s="204"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="219" t="str">
         <f>'input data'!B16</f>
         <v>Against Documents</v>
       </c>
-      <c r="H26" s="191"/>
-      <c r="I26" s="191"/>
-      <c r="J26" s="188"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="220"/>
+      <c r="J26" s="221"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50"/>
@@ -4096,74 +4093,74 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="124" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="116"/>
+      <c r="D28" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
       <c r="G28" s="62"/>
       <c r="H28" s="63"/>
-      <c r="I28" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="125"/>
+      <c r="I28" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" s="116"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36">
         <v>1</v>
       </c>
-      <c r="B29" s="197">
+      <c r="B29" s="206">
         <f>Inovice!E27</f>
         <v>68022390</v>
       </c>
-      <c r="C29" s="198"/>
-      <c r="D29" s="199" t="str">
+      <c r="C29" s="207"/>
+      <c r="D29" s="210" t="str">
         <f>Inovice!B27</f>
         <v>Absolute Black Polished Granite Slabs : Cutter Slab: 180 - 330 cm length, 60 -85 cm width, 20mm</v>
       </c>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="202">
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="208">
         <f>Inovice!F27</f>
         <v>0</v>
       </c>
-      <c r="J29" s="203"/>
+      <c r="J29" s="209"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="271">
+      <c r="A30" s="72">
         <v>2</v>
       </c>
-      <c r="B30" s="197">
+      <c r="B30" s="206">
         <f>Inovice!E30</f>
         <v>68022390</v>
       </c>
-      <c r="C30" s="198"/>
-      <c r="D30" s="199" t="str">
+      <c r="C30" s="207"/>
+      <c r="D30" s="210" t="str">
         <f>Inovice!B30</f>
         <v xml:space="preserve">Absolute Black Polished Granite Slabs : Cutter Slab: 180 - 330 cm length, 60 -85 cm width, 30mm </v>
       </c>
-      <c r="E30" s="200"/>
-      <c r="F30" s="200"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="201"/>
-      <c r="I30" s="202">
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="208">
         <f>Inovice!F30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="203"/>
+      <c r="J30" s="209"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
@@ -4174,7 +4171,7 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -4183,11 +4180,11 @@
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
-      <c r="I32" s="204">
+      <c r="I32" s="203">
         <f>SUM(I29:J31)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="154"/>
+      <c r="J32" s="78"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
@@ -4202,19 +4199,19 @@
       <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="147" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="193"/>
+      <c r="A34" s="128" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="204"/>
       <c r="C34" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="193" t="s">
+      <c r="E34" s="204"/>
+      <c r="F34" s="66" t="s">
         <v>45</v>
-      </c>
-      <c r="E34" s="193"/>
-      <c r="F34" s="66" t="s">
-        <v>46</v>
       </c>
       <c r="G34" s="66"/>
       <c r="H34" s="17"/>
@@ -4222,21 +4219,21 @@
       <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="str">
+      <c r="A35" s="83" t="str">
         <f>Inovice!A34</f>
         <v/>
       </c>
-      <c r="B35" s="103"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="58">
         <f>Inovice!C34</f>
         <v>0</v>
       </c>
       <c r="D35" s="205" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="205"/>
       <c r="F35" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="58"/>
       <c r="H35" s="19"/>
@@ -4257,7 +4254,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="60"/>
       <c r="C37" s="60" t="str">
@@ -4274,7 +4271,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="60"/>
       <c r="C38" s="60"/>
@@ -4299,109 +4296,67 @@
       <c r="J39" s="68"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="154" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="155"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="154" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="156"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="106"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="206" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="207"/>
-      <c r="C41" s="207"/>
-      <c r="D41" s="207"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="208"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="193"/>
       <c r="G41" s="16"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="209" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="210"/>
-      <c r="C42" s="210"/>
-      <c r="D42" s="210"/>
-      <c r="E42" s="210"/>
-      <c r="F42" s="211"/>
+      <c r="A42" s="194" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="195"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="196"/>
       <c r="G42" s="16"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="212" t="s">
+      <c r="A43" s="197" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="198"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
+      <c r="F43" s="199"/>
+      <c r="G43" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="213"/>
-      <c r="C43" s="213"/>
-      <c r="D43" s="213"/>
-      <c r="E43" s="213"/>
-      <c r="F43" s="214"/>
-      <c r="G43" s="215" t="s">
-        <v>80</v>
-      </c>
-      <c r="H43" s="216"/>
-      <c r="I43" s="216"/>
-      <c r="J43" s="217"/>
+      <c r="H43" s="201"/>
+      <c r="I43" s="201"/>
+      <c r="J43" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="A15:F20"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:F2"/>
@@ -4415,6 +4370,48 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E13"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="A15:F20"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:J43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{9977EBA1-A2DF-4F3F-82BC-07854643DADB}"/>
@@ -4442,92 +4439,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="248"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="261"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="258"/>
+      <c r="S1" s="258"/>
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="249"/>
-      <c r="B2" s="250"/>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="251"/>
+      <c r="A2" s="262"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="264"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="252"/>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="254"/>
+      <c r="A3" s="265"/>
+      <c r="B3" s="266"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="266"/>
+      <c r="J3" s="267"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="268" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="269"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="269"/>
+      <c r="E4" s="269"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="270"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="271" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="257"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="221" t="s">
+      <c r="B5" s="272"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="273"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="222"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="223"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
@@ -4542,18 +4539,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="224" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="138"/>
+      <c r="A8" s="274" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
@@ -4569,7 +4566,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="52">
         <v>45567</v>
@@ -4585,10 +4582,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -4613,7 +4610,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -4626,50 +4623,50 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="175" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="172"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
+      <c r="A14" s="238" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="235"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="235"/>
+      <c r="E14" s="235"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="114" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
+      <c r="A15" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="280"/>
+      <c r="C15" s="280"/>
+      <c r="D15" s="280"/>
+      <c r="E15" s="280"/>
+      <c r="F15" s="280"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
+      <c r="A16" s="281"/>
+      <c r="B16" s="280"/>
+      <c r="C16" s="280"/>
+      <c r="D16" s="280"/>
+      <c r="E16" s="280"/>
+      <c r="F16" s="280"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="171"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
+      <c r="A17" s="234"/>
+      <c r="B17" s="282"/>
+      <c r="C17" s="282"/>
+      <c r="D17" s="282"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -4679,7 +4676,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -4704,120 +4701,120 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="227" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="228"/>
-      <c r="C20" s="228"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="159" t="s">
+      <c r="A20" s="277" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="278"/>
+      <c r="C20" s="278"/>
+      <c r="D20" s="283"/>
+      <c r="E20" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="154"/>
-      <c r="G20" s="159" t="s">
+      <c r="H20" s="78"/>
+      <c r="I20" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="154"/>
-      <c r="I20" s="159" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="154"/>
+      <c r="J20" s="78"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="241" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="242"/>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="243">
+      <c r="A21" s="254" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="255"/>
+      <c r="C21" s="255"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="256">
         <v>99.95</v>
       </c>
-      <c r="F21" s="243"/>
-      <c r="G21" s="243">
+      <c r="F21" s="256"/>
+      <c r="G21" s="256">
         <v>4817</v>
       </c>
-      <c r="H21" s="243"/>
-      <c r="I21" s="235">
+      <c r="H21" s="256"/>
+      <c r="I21" s="248">
         <f>E21*G21</f>
         <v>481459.15</v>
       </c>
-      <c r="J21" s="236"/>
+      <c r="J21" s="249"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="233" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="234"/>
-      <c r="I22" s="235">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="284"/>
+      <c r="F22" s="285"/>
+      <c r="G22" s="246" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="247"/>
+      <c r="I22" s="248">
         <f>I21*0.001</f>
         <v>481.45915000000002</v>
       </c>
-      <c r="J22" s="236"/>
+      <c r="J22" s="249"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="215"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="216"/>
+      <c r="A23" s="200"/>
+      <c r="B23" s="201"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="201"/>
       <c r="E23" s="7"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="237" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="238"/>
-      <c r="I23" s="239">
+      <c r="G23" s="250" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="251"/>
+      <c r="I23" s="252">
         <f>SUM(I21:J22)</f>
         <v>481940.60915000003</v>
       </c>
-      <c r="J23" s="240"/>
+      <c r="J23" s="253"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="138"/>
+      <c r="G24" s="245"/>
+      <c r="H24" s="245"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="141"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="138"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="227" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="228"/>
+      <c r="A26" s="277" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="278"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
-      <c r="I26" s="229">
+      <c r="I26" s="279">
         <f>I23</f>
         <v>481940.60915000003</v>
       </c>
-      <c r="J26" s="154"/>
+      <c r="J26" s="78"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
@@ -4832,10 +4829,10 @@
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="225" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="226"/>
+      <c r="A28" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="276"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -4847,11 +4844,11 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -4863,7 +4860,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -4877,7 +4874,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -4891,11 +4888,11 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -4907,7 +4904,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -4921,7 +4918,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -4935,11 +4932,11 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -4953,7 +4950,7 @@
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -4967,7 +4964,7 @@
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -4978,28 +4975,28 @@
       <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="171" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="218"/>
-      <c r="C38" s="218"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="218"/>
+      <c r="A38" s="234" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="282"/>
+      <c r="C38" s="282"/>
+      <c r="D38" s="282"/>
+      <c r="E38" s="282"/>
+      <c r="F38" s="282"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="171" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="218"/>
-      <c r="C39" s="218"/>
-      <c r="D39" s="218"/>
-      <c r="E39" s="218"/>
-      <c r="F39" s="218"/>
+      <c r="A39" s="234" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="282"/>
+      <c r="C39" s="282"/>
+      <c r="D39" s="282"/>
+      <c r="E39" s="282"/>
+      <c r="F39" s="282"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
@@ -5007,7 +5004,7 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="54" t="str">
         <f>'input data'!B5</f>
@@ -5024,7 +5021,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -5074,6 +5071,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A15:F16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="G24:H24"/>
@@ -5090,26 +5107,6 @@
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A15:F16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="portrait" r:id="rId1"/>
